--- a/data/trans_orig/P74B-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P74B-Dificultad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>22693</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15308</v>
+        <v>14975</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>34201</v>
+        <v>33980</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07830289845335499</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05282111387699401</v>
+        <v>0.05167073980576574</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1180119726044193</v>
+        <v>0.1172511853575081</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>180</v>
@@ -764,19 +764,19 @@
         <v>179718</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>166201</v>
+        <v>166066</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>190448</v>
+        <v>190401</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.801069702684578</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7408175869248411</v>
+        <v>0.7402159798340744</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8488969797869708</v>
+        <v>0.8486880447458649</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>203</v>
@@ -785,19 +785,19 @@
         <v>202411</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>181400</v>
+        <v>182311</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>226254</v>
+        <v>226923</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3936764997665493</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3528108098385243</v>
+        <v>0.3545823525698337</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4400498225548511</v>
+        <v>0.4413498042667683</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>267115</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>255607</v>
+        <v>255828</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>274500</v>
+        <v>274833</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.921697101546645</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8819880273955805</v>
+        <v>0.8827488146424922</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9471788861230059</v>
+        <v>0.9483292601942345</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>43</v>
@@ -835,19 +835,19 @@
         <v>44630</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>33900</v>
+        <v>33947</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>58147</v>
+        <v>58282</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.198930297315422</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1511030202130293</v>
+        <v>0.1513119552541352</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2591824130751589</v>
+        <v>0.2597840201659256</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>309</v>
@@ -856,19 +856,19 @@
         <v>311745</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>287902</v>
+        <v>287233</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>332756</v>
+        <v>331845</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6063235002334506</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5599501774451491</v>
+        <v>0.5586501957332317</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6471891901614758</v>
+        <v>0.6454176474301664</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>36232</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>25911</v>
+        <v>25374</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>49369</v>
+        <v>48897</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0693584327244019</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04960155284395076</v>
+        <v>0.04857339814530686</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09450529119473966</v>
+        <v>0.09360305555293455</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>163</v>
@@ -981,19 +981,19 @@
         <v>165246</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>154395</v>
+        <v>152580</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>176025</v>
+        <v>175819</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.813582020302546</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7601570157960212</v>
+        <v>0.7512219541216819</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8666527827365326</v>
+        <v>0.8656400921551958</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>200</v>
@@ -1002,19 +1002,19 @@
         <v>201479</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>176337</v>
+        <v>177733</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>222999</v>
+        <v>225761</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2777092451904731</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2430545572180765</v>
+        <v>0.2449799154838522</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3073718021538072</v>
+        <v>0.3111786197686198</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>486160</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>473023</v>
+        <v>473495</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>496481</v>
+        <v>497018</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9306415672755981</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9054947088052603</v>
+        <v>0.9063969444470656</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.950398447156049</v>
+        <v>0.9514266018546932</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>38</v>
@@ -1052,19 +1052,19 @@
         <v>37863</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>27084</v>
+        <v>27290</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>48714</v>
+        <v>50529</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.186417979697454</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1333472172634672</v>
+        <v>0.1343599078448043</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2398429842039785</v>
+        <v>0.2487780458783184</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>520</v>
@@ -1073,19 +1073,19 @@
         <v>524023</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>502503</v>
+        <v>499741</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>549165</v>
+        <v>547769</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7222907548095269</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6926281978461928</v>
+        <v>0.6888213802313808</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7569454427819235</v>
+        <v>0.7550200845161479</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>30869</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>21545</v>
+        <v>21410</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>43347</v>
+        <v>42625</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06830056831998825</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04766952981745423</v>
+        <v>0.04737207472238864</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09590845285736102</v>
+        <v>0.09431213671855167</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>121</v>
@@ -1198,19 +1198,19 @@
         <v>121464</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>111805</v>
+        <v>112733</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>127803</v>
+        <v>128307</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8801620243588502</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8101708059121707</v>
+        <v>0.8168933811248986</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9260973447513097</v>
+        <v>0.9297489121067488</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>153</v>
@@ -1219,19 +1219,19 @@
         <v>152333</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>132452</v>
+        <v>132422</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>176845</v>
+        <v>174833</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2582078089176338</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2245089832678383</v>
+        <v>0.2244588981742915</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2997569093429622</v>
+        <v>0.296346312180055</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>421092</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>408614</v>
+        <v>409336</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>430416</v>
+        <v>430551</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9316994316800118</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.904091547142639</v>
+        <v>0.9056878632814483</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9523304701825457</v>
+        <v>0.9526279252776113</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>16</v>
@@ -1269,19 +1269,19 @@
         <v>16538</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>10199</v>
+        <v>9695</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>26197</v>
+        <v>25269</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1198379756411498</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.07390265524869005</v>
+        <v>0.07025108789325089</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1898291940878288</v>
+        <v>0.183106618875101</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>430</v>
@@ -1290,19 +1290,19 @@
         <v>437630</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>413118</v>
+        <v>415130</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>457511</v>
+        <v>457541</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7417921910823662</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7002430906570376</v>
+        <v>0.7036536878199446</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7754910167321615</v>
+        <v>0.7755411018257083</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>11001</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5236</v>
+        <v>5827</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>19773</v>
+        <v>19698</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08573115449477388</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04080497149824355</v>
+        <v>0.04541366414457854</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1540943212727598</v>
+        <v>0.1535150404129436</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>30</v>
@@ -1415,19 +1415,19 @@
         <v>30697</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>26252</v>
+        <v>25769</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>32646</v>
+        <v>32631</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.9196635204669963</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.786490573003883</v>
+        <v>0.7720171924450059</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9780263302081338</v>
+        <v>0.9775809286476266</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>40</v>
@@ -1436,19 +1436,19 @@
         <v>41698</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>31204</v>
+        <v>30927</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>52849</v>
+        <v>52823</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2578814812002554</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1929833668029828</v>
+        <v>0.19126578837198</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3268483379054666</v>
+        <v>0.3266842321562493</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>117314</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>108542</v>
+        <v>108617</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>123079</v>
+        <v>122488</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9142688455052261</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8459056787272403</v>
+        <v>0.8464849595870564</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9591950285017565</v>
+        <v>0.9545863358554214</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3</v>
@@ -1486,19 +1486,19 @@
         <v>2682</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>733</v>
+        <v>748</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7127</v>
+        <v>7610</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.08033647953300373</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02197366979186621</v>
+        <v>0.02241907135237348</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2135094269961168</v>
+        <v>0.2279828075549939</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>120</v>
@@ -1507,19 +1507,19 @@
         <v>119996</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>108845</v>
+        <v>108871</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>130490</v>
+        <v>130767</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7421185187997447</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6731516620945335</v>
+        <v>0.6733157678437507</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8070166331970172</v>
+        <v>0.8087342116280201</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>100795</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>83242</v>
+        <v>82929</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>121831</v>
+        <v>122448</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07238536425894318</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05977947213007</v>
+        <v>0.05955505672903192</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08749250451397671</v>
+        <v>0.08793529562161348</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>494</v>
@@ -1632,19 +1632,19 @@
         <v>497126</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>475588</v>
+        <v>476652</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>513967</v>
+        <v>514404</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8301506360015303</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7941853498187508</v>
+        <v>0.7959608642515053</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8582745924268099</v>
+        <v>0.8590039161223958</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>596</v>
@@ -1653,19 +1653,19 @@
         <v>597920</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>560372</v>
+        <v>552915</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>637040</v>
+        <v>633360</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3002642388437373</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2814082773360352</v>
+        <v>0.2776636265690375</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.319909166710005</v>
+        <v>0.3180614284167348</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>1291682</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1270646</v>
+        <v>1270029</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1309235</v>
+        <v>1309548</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9276146357410568</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9125074954860232</v>
+        <v>0.9120647043783867</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.94022052786993</v>
+        <v>0.9404449432709681</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>100</v>
@@ -1703,19 +1703,19 @@
         <v>101712</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>84871</v>
+        <v>84434</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>123250</v>
+        <v>122186</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1698493639984697</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.14172540757319</v>
+        <v>0.1409960838776041</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2058146501812488</v>
+        <v>0.2040391357484947</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1379</v>
@@ -1724,19 +1724,19 @@
         <v>1393394</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1354274</v>
+        <v>1357954</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1430942</v>
+        <v>1438399</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6997357611562628</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.680090833289995</v>
+        <v>0.6819385715832653</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7185917226639645</v>
+        <v>0.7223363734309626</v>
       </c>
     </row>
     <row r="18">
@@ -2068,19 +2068,19 @@
         <v>50231</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>36044</v>
+        <v>37387</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>66832</v>
+        <v>65760</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1060633326791348</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07610639475488475</v>
+        <v>0.07894259333104546</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1411145510938757</v>
+        <v>0.1388507593994485</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>171</v>
@@ -2089,19 +2089,19 @@
         <v>187364</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>166832</v>
+        <v>168821</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>204559</v>
+        <v>206485</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5297892355264952</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4717330773428456</v>
+        <v>0.4773560603636645</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5784081135154587</v>
+        <v>0.5838562018021971</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>214</v>
@@ -2110,19 +2110,19 @@
         <v>237595</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>211944</v>
+        <v>211708</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>266310</v>
+        <v>266953</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2872090012763741</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2562010478549928</v>
+        <v>0.2559158954980809</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3219202324760096</v>
+        <v>0.3226973764386611</v>
       </c>
     </row>
     <row r="5">
@@ -2139,19 +2139,19 @@
         <v>423368</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>406767</v>
+        <v>407839</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>437555</v>
+        <v>436212</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8939366673208652</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8588854489061243</v>
+        <v>0.8611492406005518</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.923893605245115</v>
+        <v>0.9210574066689546</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>154</v>
@@ -2160,19 +2160,19 @@
         <v>166294</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>149099</v>
+        <v>147173</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>186826</v>
+        <v>184837</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4702107644735049</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4215918864845413</v>
+        <v>0.4161437981978029</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5282669226571545</v>
+        <v>0.5226439396363356</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>552</v>
@@ -2181,19 +2181,19 @@
         <v>589661</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>560946</v>
+        <v>560303</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>615312</v>
+        <v>615548</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7127909987236259</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6780797675239904</v>
+        <v>0.6773026235613391</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7437989521450074</v>
+        <v>0.7440841045019192</v>
       </c>
     </row>
     <row r="6">
@@ -2285,19 +2285,19 @@
         <v>40090</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>29177</v>
+        <v>27791</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>52725</v>
+        <v>53641</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09592936591424511</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06981678066290087</v>
+        <v>0.06649949163534723</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1261628382616582</v>
+        <v>0.1283541542089864</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>175</v>
@@ -2306,19 +2306,19 @@
         <v>187745</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>170206</v>
+        <v>171036</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>203375</v>
+        <v>203189</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6871824555475388</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6229863483494589</v>
+        <v>0.6260221764531984</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7443905368634414</v>
+        <v>0.7437105565402642</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>212</v>
@@ -2327,19 +2327,19 @@
         <v>227835</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>201562</v>
+        <v>202622</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>252879</v>
+        <v>255438</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3296592634391529</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2916444578306673</v>
+        <v>0.2931772367261752</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3658952800506542</v>
+        <v>0.3695983574437654</v>
       </c>
     </row>
     <row r="8">
@@ -2356,19 +2356,19 @@
         <v>377823</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>365188</v>
+        <v>364272</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>388736</v>
+        <v>390122</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9040706340857548</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8738371617383418</v>
+        <v>0.8716458457910136</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9301832193370991</v>
+        <v>0.9335005083646526</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>78</v>
@@ -2377,19 +2377,19 @@
         <v>85465</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>69835</v>
+        <v>70021</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>103004</v>
+        <v>102174</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3128175444524613</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2556094631365587</v>
+        <v>0.2562894434597358</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3770136516505416</v>
+        <v>0.3739778235468018</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>436</v>
@@ -2398,19 +2398,19 @@
         <v>463288</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>438244</v>
+        <v>435685</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>489561</v>
+        <v>488501</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.670340736560847</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6341047199493458</v>
+        <v>0.6304016425562347</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7083555421693327</v>
+        <v>0.706822763273825</v>
       </c>
     </row>
     <row r="9">
@@ -2502,19 +2502,19 @@
         <v>60953</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>47008</v>
+        <v>46558</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>75966</v>
+        <v>75489</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1835703949140362</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1415733250436351</v>
+        <v>0.1402167474091664</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2287832768935495</v>
+        <v>0.2273464657428393</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>155</v>
@@ -2523,19 +2523,19 @@
         <v>166135</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>155564</v>
+        <v>156178</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>173280</v>
+        <v>173718</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.882716928830801</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.826547822330714</v>
+        <v>0.8298116645551064</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9206781375152151</v>
+        <v>0.9230068523065028</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>210</v>
@@ -2544,19 +2544,19 @@
         <v>227088</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>205154</v>
+        <v>203196</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>250407</v>
+        <v>248601</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4364969227495469</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3943360259314323</v>
+        <v>0.3905726196608035</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4813182823820145</v>
+        <v>0.4778468986877711</v>
       </c>
     </row>
     <row r="11">
@@ -2573,19 +2573,19 @@
         <v>271090</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>256077</v>
+        <v>256554</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>285035</v>
+        <v>285485</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8164296050859637</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7712167231064504</v>
+        <v>0.7726535342571603</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8584266749563649</v>
+        <v>0.8597832525908333</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>22</v>
@@ -2594,19 +2594,19 @@
         <v>22074</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>14929</v>
+        <v>14491</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>32645</v>
+        <v>32031</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.117283071169199</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.07932186248478486</v>
+        <v>0.07699314769349701</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1734521776692849</v>
+        <v>0.1701883354448936</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>276</v>
@@ -2615,19 +2615,19 @@
         <v>293164</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>269845</v>
+        <v>271651</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>315098</v>
+        <v>317056</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5635030772504531</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5186817176179855</v>
+        <v>0.5221531013122289</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6056639740685678</v>
+        <v>0.6094273803391965</v>
       </c>
     </row>
     <row r="12">
@@ -2719,19 +2719,19 @@
         <v>21590</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>13011</v>
+        <v>12935</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>33727</v>
+        <v>32552</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1477239186458517</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08902852563549639</v>
+        <v>0.08850237494488304</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.230774319607557</v>
+        <v>0.2227332923217478</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>69</v>
@@ -2740,19 +2740,19 @@
         <v>80423</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>71425</v>
+        <v>71208</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>87807</v>
+        <v>87854</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.8257975650892082</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7334086065375153</v>
+        <v>0.7311789331704627</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.901622317653383</v>
+        <v>0.9020992768092063</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>86</v>
@@ -2761,19 +2761,19 @@
         <v>102013</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>83046</v>
+        <v>85130</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>118084</v>
+        <v>117955</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4188789249408044</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.340998401013811</v>
+        <v>0.3495554969353148</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4848702078383464</v>
+        <v>0.4843401890318356</v>
       </c>
     </row>
     <row r="14">
@@ -2790,19 +2790,19 @@
         <v>124559</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>112422</v>
+        <v>113597</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>133138</v>
+        <v>133214</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8522760813541483</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7692256803924431</v>
+        <v>0.7772667076782525</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9109714743645037</v>
+        <v>0.911497625055117</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>14</v>
@@ -2811,19 +2811,19 @@
         <v>16965</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>9581</v>
+        <v>9534</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>25963</v>
+        <v>26180</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1742024349107918</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.09837768234661705</v>
+        <v>0.09790072319079382</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2665913934624847</v>
+        <v>0.2688210668295393</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>125</v>
@@ -2832,19 +2832,19 @@
         <v>141524</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>125453</v>
+        <v>125582</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>160491</v>
+        <v>158407</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5811210750591956</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5151297921616536</v>
+        <v>0.5156598109681644</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.659001598986189</v>
+        <v>0.6504445030646852</v>
       </c>
     </row>
     <row r="15">
@@ -2936,19 +2936,19 @@
         <v>172865</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>147470</v>
+        <v>147980</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>199544</v>
+        <v>200071</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1262058050087705</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1076658787316455</v>
+        <v>0.1080378082406399</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1456836872535114</v>
+        <v>0.14606890803533</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>570</v>
@@ -2957,19 +2957,19 @@
         <v>621667</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>592668</v>
+        <v>592761</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>652733</v>
+        <v>650918</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6813054832966213</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.649524504038241</v>
+        <v>0.6496270202707893</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7153525171542335</v>
+        <v>0.7133625896101432</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>722</v>
@@ -2978,19 +2978,19 @@
         <v>794531</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>749205</v>
+        <v>745620</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>841711</v>
+        <v>840777</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3481476330146876</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3282863368838478</v>
+        <v>0.326715665127351</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3688208417936436</v>
+        <v>0.3684116747979115</v>
       </c>
     </row>
     <row r="17">
@@ -3007,19 +3007,19 @@
         <v>1196839</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1170160</v>
+        <v>1169633</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1222234</v>
+        <v>1221724</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8737941949912295</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8543163127464888</v>
+        <v>0.8539310919646695</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8923341212683545</v>
+        <v>0.8919621917593601</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>268</v>
@@ -3028,19 +3028,19 @@
         <v>290797</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>259731</v>
+        <v>261546</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>319796</v>
+        <v>319703</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3186945167033787</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2846474828457664</v>
+        <v>0.2866374103898565</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3504754959617589</v>
+        <v>0.3503729797292105</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1389</v>
@@ -3049,19 +3049,19 @@
         <v>1487637</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1440457</v>
+        <v>1441391</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1532963</v>
+        <v>1536548</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6518523669853125</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6311791582063565</v>
+        <v>0.6315883252020885</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6717136631161535</v>
+        <v>0.673284334872649</v>
       </c>
     </row>
     <row r="18">
@@ -3393,19 +3393,19 @@
         <v>64273</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>48315</v>
+        <v>49429</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>79750</v>
+        <v>79658</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1245638648820112</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.093637072083705</v>
+        <v>0.09579530181971448</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1545587235112335</v>
+        <v>0.1543808479407012</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>178</v>
@@ -3414,19 +3414,19 @@
         <v>201879</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>181194</v>
+        <v>183608</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>221842</v>
+        <v>222441</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5050115663871123</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4532651398645077</v>
+        <v>0.4593047120962834</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5549488551005953</v>
+        <v>0.5564474647405512</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>241</v>
@@ -3435,19 +3435,19 @@
         <v>266152</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>236843</v>
+        <v>237373</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>296614</v>
+        <v>292264</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2906429166871972</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2586372634663363</v>
+        <v>0.2592155471285349</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.323907422057278</v>
+        <v>0.3191572570152962</v>
       </c>
     </row>
     <row r="5">
@@ -3464,19 +3464,19 @@
         <v>451711</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>436234</v>
+        <v>436326</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>467669</v>
+        <v>466555</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8754361351179888</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8454412764887663</v>
+        <v>0.8456191520592987</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9063629279162949</v>
+        <v>0.9042046981802854</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>192</v>
@@ -3485,19 +3485,19 @@
         <v>197873</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>177910</v>
+        <v>177311</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>218558</v>
+        <v>216144</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4949884336128877</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4450511448994047</v>
+        <v>0.4435525352594489</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5467348601354926</v>
+        <v>0.5406952879037169</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>621</v>
@@ -3506,19 +3506,19 @@
         <v>649584</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>619122</v>
+        <v>623472</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>678893</v>
+        <v>678363</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7093570833128028</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6760925779427223</v>
+        <v>0.6808427429847038</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7413627365336638</v>
+        <v>0.7407844528714647</v>
       </c>
     </row>
     <row r="6">
@@ -3610,19 +3610,19 @@
         <v>51895</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>39190</v>
+        <v>40994</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>68156</v>
+        <v>68307</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.13517382801195</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1020810752810867</v>
+        <v>0.1067804393142062</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1775324720946671</v>
+        <v>0.1779240729161076</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>145</v>
@@ -3631,19 +3631,19 @@
         <v>163120</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>148034</v>
+        <v>147165</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>175412</v>
+        <v>175697</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7022644261473217</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6373149805188192</v>
+        <v>0.6335738540041532</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7551832068836072</v>
+        <v>0.7564112857428955</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>197</v>
@@ -3652,19 +3652,19 @@
         <v>215014</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>194545</v>
+        <v>192128</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>242995</v>
+        <v>241326</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3489433441534477</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3157234880730303</v>
+        <v>0.3118008464266071</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3943528107215745</v>
+        <v>0.3916441029932743</v>
       </c>
     </row>
     <row r="8">
@@ -3681,19 +3681,19 @@
         <v>332015</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>315754</v>
+        <v>315603</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>344720</v>
+        <v>342916</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8648261719880499</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8224675279053328</v>
+        <v>0.8220759270838922</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8979189247189132</v>
+        <v>0.8932195606857936</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>67</v>
@@ -3702,19 +3702,19 @@
         <v>69157</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>56865</v>
+        <v>56580</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>84243</v>
+        <v>85112</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2977355738526783</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2448167931163928</v>
+        <v>0.2435887142571045</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3626850194811813</v>
+        <v>0.3664261459958469</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>390</v>
@@ -3723,19 +3723,19 @@
         <v>401173</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>373192</v>
+        <v>374861</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>421642</v>
+        <v>424059</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6510566558465523</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6056471892784258</v>
+        <v>0.6083558970067255</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6842765119269697</v>
+        <v>0.6881991535733927</v>
       </c>
     </row>
     <row r="9">
@@ -3827,19 +3827,19 @@
         <v>35121</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>24808</v>
+        <v>24801</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>47651</v>
+        <v>47261</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1183949987952906</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08362843204470267</v>
+        <v>0.08360460648665766</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1606357881493362</v>
+        <v>0.1593204497136332</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>126</v>
@@ -3848,19 +3848,19 @@
         <v>144069</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>133453</v>
+        <v>134033</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>151586</v>
+        <v>152254</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8775156086279878</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8128559833837937</v>
+        <v>0.816389975475748</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9233018959002404</v>
+        <v>0.9273700132308851</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>161</v>
@@ -3869,19 +3869,19 @@
         <v>179189</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>159016</v>
+        <v>159268</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>200499</v>
+        <v>200650</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3888486299140603</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3450715306292334</v>
+        <v>0.3456196495625091</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4350915620623975</v>
+        <v>0.4354187394803343</v>
       </c>
     </row>
     <row r="11">
@@ -3898,19 +3898,19 @@
         <v>261522</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>248992</v>
+        <v>249382</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>271835</v>
+        <v>271842</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8816050012047094</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8393642118506639</v>
+        <v>0.8406795502863668</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9163715679552976</v>
+        <v>0.9163953935133423</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>18</v>
@@ -3919,19 +3919,19 @@
         <v>20109</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>12592</v>
+        <v>11924</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>30725</v>
+        <v>30145</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1224843913720122</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.07669810409975934</v>
+        <v>0.07262998676911486</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1871440166162063</v>
+        <v>0.183610024524252</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>275</v>
@@ -3940,19 +3940,19 @@
         <v>281631</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>260321</v>
+        <v>260170</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>301804</v>
+        <v>301552</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6111513700859397</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5649084379376024</v>
+        <v>0.5645812605196662</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6549284693707665</v>
+        <v>0.654380350437491</v>
       </c>
     </row>
     <row r="12">
@@ -4044,19 +4044,19 @@
         <v>15892</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9968</v>
+        <v>9851</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>25126</v>
+        <v>24684</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1045674497825065</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06558951416331348</v>
+        <v>0.06481723266987117</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1653205884029733</v>
+        <v>0.16241547915009</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>67</v>
@@ -4065,19 +4065,19 @@
         <v>77733</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>68783</v>
+        <v>68585</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>84252</v>
+        <v>84720</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.8259083647030958</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7308218535372295</v>
+        <v>0.7287106621933263</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8951750394226339</v>
+        <v>0.9001506045853322</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>84</v>
@@ -4086,19 +4086,19 @@
         <v>93626</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>75232</v>
+        <v>78578</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>109269</v>
+        <v>109390</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3804370234087384</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3056982561200001</v>
+        <v>0.3192918421711888</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4440041130258345</v>
+        <v>0.4444933933898155</v>
       </c>
     </row>
     <row r="14">
@@ -4115,19 +4115,19 @@
         <v>136089</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>126855</v>
+        <v>127297</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>142013</v>
+        <v>142130</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8954325502174936</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8346794115970254</v>
+        <v>0.8375845208499098</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9344104858366863</v>
+        <v>0.9351827673301288</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>15</v>
@@ -4136,19 +4136,19 @@
         <v>16385</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>9866</v>
+        <v>9398</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>25335</v>
+        <v>25533</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1740916352969042</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1048249605773661</v>
+        <v>0.09984939541466738</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2691781464627706</v>
+        <v>0.2712893378066737</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>140</v>
@@ -4157,19 +4157,19 @@
         <v>152474</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>136831</v>
+        <v>136710</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>170868</v>
+        <v>167522</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6195629765912617</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5559958869741657</v>
+        <v>0.5555066066101843</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6943017438799999</v>
+        <v>0.6807081578288111</v>
       </c>
     </row>
     <row r="15">
@@ -4261,19 +4261,19 @@
         <v>167181</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>143951</v>
+        <v>144174</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>194635</v>
+        <v>194651</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.123973762772467</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1067471488120961</v>
+        <v>0.1069129658338066</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1443325840573455</v>
+        <v>0.1443439541779762</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>516</v>
@@ -4282,19 +4282,19 @@
         <v>586800</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>554003</v>
+        <v>555739</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>612233</v>
+        <v>611928</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6590861568972117</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6222492910524949</v>
+        <v>0.6241983001350475</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6876513972490458</v>
+        <v>0.6873090335457913</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>683</v>
@@ -4303,19 +4303,19 @@
         <v>753981</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>707140</v>
+        <v>708959</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>799545</v>
+        <v>804672</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3367727547538253</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.315850491767891</v>
+        <v>0.3166633367509341</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3571243987665824</v>
+        <v>0.3594143782897056</v>
       </c>
     </row>
     <row r="17">
@@ -4332,19 +4332,19 @@
         <v>1181338</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1153884</v>
+        <v>1153868</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1204568</v>
+        <v>1204345</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.876026237227533</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8556674159426545</v>
+        <v>0.8556560458220239</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.893252851187904</v>
+        <v>0.8930870341661934</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>292</v>
@@ -4353,19 +4353,19 @@
         <v>303524</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>278091</v>
+        <v>278396</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>336321</v>
+        <v>334585</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3409138431027883</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3123486027509542</v>
+        <v>0.3126909664542087</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3777507089475051</v>
+        <v>0.3758016998649525</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1426</v>
@@ -4374,19 +4374,19 @@
         <v>1484862</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1439298</v>
+        <v>1434171</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1531703</v>
+        <v>1529884</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6632272452461746</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6428756012334176</v>
+        <v>0.6405856217102945</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.684149508232109</v>
+        <v>0.6833366632490659</v>
       </c>
     </row>
     <row r="18">
